--- a/Pedidos/DataExcel/Orden_Produccion.xlsx
+++ b/Pedidos/DataExcel/Orden_Produccion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Idioma</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,32 +435,12 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Pedidos/DataExcel/Orden_Produccion.xlsx
+++ b/Pedidos/DataExcel/Orden_Produccion.xlsx
@@ -435,10 +435,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/Pedidos/DataExcel/Orden_Produccion.xlsx
+++ b/Pedidos/DataExcel/Orden_Produccion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Idioma</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,9 +438,29 @@
         <v>275</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>276</v>
+      </c>
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
